--- a/biology/Botanique/Astragalus_amphioxys/Astragalus_amphioxys.xlsx
+++ b/biology/Botanique/Astragalus_amphioxys/Astragalus_amphioxys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astragalus amphioxys est une espèce de plantes à fleurs de la famille des Fabacées et de la sous-famille des Faboideae, endémique d'Amérique du Nord.
 </t>
@@ -513,12 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante herbacée annuelle.
-La plante aux feuilles composées est couvertes de poils lui donnant un aspect gris-vert ou glauque. Les feuilles, imparipennées, possèdent de 7 à 21 folioles ovales de 3 à 20 mm de longueur. La plante entière mesure entre 5 et 25 cm de hauteur[1].
-Appareil reproducteur
-La floraison survient entre mars et juin. 
-Les fleurs, de couleur rose ou rouge violacé, se présentent en courtes grappes. Chaque fleur mesure entre 2 et 2,5 cm de long ; la corolle comprend 5 pétales : un large pétale supérieur, deux latéraux, et deux inférieurs, joints en forme de proue de navire. Les fruits sont des gousses de 2 à 5 cm de long fuselées aux deux extrémités et pointues à l'extrémité distale. Ces gousses permettent de distinguer cette espèce d'autres astragales : elles ne contiennent qu'une chambre, et la suture inférieure se situe au fond d'un sillon et non au sommet d'une crête[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée annuelle.
+La plante aux feuilles composées est couvertes de poils lui donnant un aspect gris-vert ou glauque. Les feuilles, imparipennées, possèdent de 7 à 21 folioles ovales de 3 à 20 mm de longueur. La plante entière mesure entre 5 et 25 cm de hauteur.
 </t>
         </is>
       </c>
@@ -544,13 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Astragalus amphioxys pousse sur les sols de sable ou de graviers des déserts, ou dans les steppes arides, ou parmi les bois arides des montagnes désertiques (association Pinus-Juniperus)[1].
-Son aire de répartition est limitée aux zones arides du Mexique et du sud-ouest des États-Unis. Elle va, aux États-Unis, du Nevada au Colorado au nord jusqu'au Nouveau-Mexique et à l'ouest du Texas au sud[1].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison survient entre mars et juin. 
+Les fleurs, de couleur rose ou rouge violacé, se présentent en courtes grappes. Chaque fleur mesure entre 2 et 2,5 cm de long ; la corolle comprend 5 pétales : un large pétale supérieur, deux latéraux, et deux inférieurs, joints en forme de proue de navire. Les fruits sont des gousses de 2 à 5 cm de long fuselées aux deux extrémités et pointues à l'extrémité distale. Ces gousses permettent de distinguer cette espèce d'autres astragales : elles ne contiennent qu'une chambre, et la suture inférieure se situe au fond d'un sillon et non au sommet d'une crête.
 </t>
         </is>
       </c>
@@ -576,23 +596,129 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astragalus amphioxys pousse sur les sols de sable ou de graviers des déserts, ou dans les steppes arides, ou parmi les bois arides des montagnes désertiques (association Pinus-Juniperus).
+Son aire de répartition est limitée aux zones arides du Mexique et du sud-ouest des États-Unis. Elle va, aux États-Unis, du Nevada au Colorado au nord jusqu'au Nouveau-Mexique et à l'ouest du Texas au sud.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Astragalus_amphioxys</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astragalus_amphioxys</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1878 par le botaniste américain Asa Gray dans "Proceedings of the American Academy of Arts and Sciences". 
-Variétés
-Cette espèce présente, selon certains auteurs, plusieurs variétés[2]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1878 par le botaniste américain Asa Gray dans "Proceedings of the American Academy of Arts and Sciences". 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Astragalus_amphioxys</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astragalus_amphioxys</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce présente, selon certains auteurs, plusieurs variétés:
 Astragalus amphioxys var. amphioxys Gray
 Astragalus amphioxys var. modestus Barneby
 Astragalus amphioxys var. musimonum (Barneby) Barneby
 Astragalus amphioxys var. vespertinus (Sheldon) M.E. Jones.
 Mais d'autres auteurs les considèrent comme synonymes d'Astragalus amphioxys.
 Les variétés Astragalus amphioxys var. melanocalyx (Rydb.)Tiderstr. et Astragalus amphioxys var. typicus Barneby sont encore plus rarement considérées comme valides.
-Selon le Missouri Botanical Garden, la variété Astragalus amphioxys var. brachylobus A. Gray ex M.E. Jones a été réattribuée à l'espèce Astragalus tephrodes[3] et la variété Astragalus amphioxys var. cymbellus M.E. Jones à l'espèce Astragalus cymboides[4] 
-Synonymes
-Astragalus amphioxys s'est vu attribuer de nombreux autres noms[5]: 
+Selon le Missouri Botanical Garden, la variété Astragalus amphioxys var. brachylobus A. Gray ex M.E. Jones a été réattribuée à l'espèce Astragalus tephrodes et la variété Astragalus amphioxys var. cymbellus M.E. Jones à l'espèce Astragalus cymboides 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Astragalus_amphioxys</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astragalus_amphioxys</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Astragalus amphioxys s'est vu attribuer de nombreux autres noms: 
 Astragalus crescenticarpus E.Sheld.
 Astragalus marcusjonesii Munz
 Astragalus selenaeus Greene
